--- a/soccer/laliga.xlsx
+++ b/soccer/laliga.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvray\OneDrive\Documents\Web Development\NBA TEAMS\nba_socmed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/soccer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B85937-CE6D-4B79-92F6-ED23181905F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A1B85937-CE6D-4B79-92F6-ED23181905F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092F4797-E2B0-44DB-807C-CFEED743D2DC}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="1365" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feb 2024 LaLiga" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -878,17 +878,17 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -967,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>132</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>148</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>156</v>
       </c>
